--- a/Projet_Jeu_Multijoueurs.xlsx
+++ b/Projet_Jeu_Multijoueurs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">MUST (Vital)</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Intéractivité avec l’environnement de manière coopérative </t>
   </si>
   <si>
-    <t xml:space="preserve">Bloc cassé</t>
+    <t xml:space="preserve">Les éléments doivent s’adapter aux nombres de joueurs vivants</t>
   </si>
   <si>
     <t xml:space="preserve">Items (Armures, armes, utilisables)</t>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t xml:space="preserve">Faire le paramétrage sur un fichier a part (Json)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map complète en activant un menu</t>
   </si>
 </sst>
 </file>
@@ -214,12 +223,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -275,37 +290,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -358,7 +405,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -388,12 +435,12 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.18"/>
@@ -401,344 +448,378 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -775,7 +856,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
@@ -783,6 +864,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Projet_Jeu_Multijoueurs.xlsx
+++ b/Projet_Jeu_Multijoueurs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">MUST (Vital)</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">Items (Armures, armes, utilisables)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ressusciter un joueur mort sur un autel de résurrection</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transformer l'apparence des joueurs</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Map complète en activant un menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brouillard de guerre sur la carte </t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,6 +326,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,7 +445,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,82 +592,82 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
         <v>34</v>
@@ -666,7 +676,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
         <v>35</v>
@@ -675,7 +685,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
         <v>36</v>
@@ -684,7 +694,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
         <v>37</v>
@@ -693,7 +703,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
         <v>38</v>
@@ -701,29 +711,29 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>43</v>
       </c>
@@ -759,11 +769,9 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -771,58 +779,76 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="12" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -860,11 +886,11 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
